--- a/data/trans_orig/P05A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>711718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>683474</v>
+        <v>679973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>739687</v>
+        <v>738476</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7361503982196026</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.706937752583678</v>
+        <v>0.7033155952689842</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7650796637448161</v>
+        <v>0.7638275703369585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>890</v>
@@ -764,19 +764,19 @@
         <v>959466</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>927524</v>
+        <v>926935</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>992458</v>
+        <v>990825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7216156800827853</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6975921595348125</v>
+        <v>0.6971488935334292</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7464293652256281</v>
+        <v>0.7452011961866816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1549</v>
@@ -785,19 +785,19 @@
         <v>1671183</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1626128</v>
+        <v>1623245</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1712733</v>
+        <v>1711747</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7277349102320044</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7081152746620542</v>
+        <v>0.706859689280543</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7458283616093866</v>
+        <v>0.7453989503271244</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>222812</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>197514</v>
+        <v>197913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>251002</v>
+        <v>252733</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.230461225284303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2042940959270309</v>
+        <v>0.2047074862608719</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2596183269425786</v>
+        <v>0.2614092540793325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>311</v>
@@ -835,19 +835,19 @@
         <v>329798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297947</v>
+        <v>300007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>361476</v>
+        <v>360501</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2480416152336804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2240865812032743</v>
+        <v>0.2256354862193351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2718663290716629</v>
+        <v>0.2711331165834124</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>522</v>
@@ -856,19 +856,19 @@
         <v>552610</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>514880</v>
+        <v>512253</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>594828</v>
+        <v>597982</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2406401334023433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2242101623873829</v>
+        <v>0.2230661452591923</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2590241831498004</v>
+        <v>0.2603979614138447</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>32280</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22340</v>
+        <v>22989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44713</v>
+        <v>45362</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03338837649609439</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02310706212110827</v>
+        <v>0.02377845439067416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04624750491712616</v>
+        <v>0.04691942313613073</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -906,19 +906,19 @@
         <v>40344</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28334</v>
+        <v>28441</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52753</v>
+        <v>53314</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03034270468353432</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0213101704443755</v>
+        <v>0.02139028004052758</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03967567640854806</v>
+        <v>0.04009740857200603</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>70</v>
@@ -927,19 +927,19 @@
         <v>72624</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56984</v>
+        <v>57182</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>90188</v>
+        <v>89569</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03162495636565228</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02481451166612344</v>
+        <v>0.02490045455901345</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03927355075228239</v>
+        <v>0.03900367571274527</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>1369247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1327852</v>
+        <v>1328349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1416513</v>
+        <v>1412557</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7007486283987161</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6795634704712448</v>
+        <v>0.6798176764297671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7249379282456192</v>
+        <v>0.722913710667359</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1138</v>
@@ -1052,19 +1052,19 @@
         <v>1217867</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1176763</v>
+        <v>1175649</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1255927</v>
+        <v>1254262</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6977419268089033</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6741921867043132</v>
+        <v>0.6735539124600055</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.71954717029618</v>
+        <v>0.7185931812506242</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2436</v>
@@ -1073,19 +1073,19 @@
         <v>2587115</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2528748</v>
+        <v>2529135</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2641083</v>
+        <v>2652376</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6993300220361941</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6835527225536369</v>
+        <v>0.6836574437411123</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7139183432475608</v>
+        <v>0.7169709201331878</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>500592</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>459272</v>
+        <v>456822</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>543626</v>
+        <v>539648</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2561910328184439</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2350447860858471</v>
+        <v>0.2337906200277509</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2782149953144951</v>
+        <v>0.2761789814708017</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>425</v>
@@ -1123,19 +1123,19 @@
         <v>460341</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>421107</v>
+        <v>425503</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>498329</v>
+        <v>499935</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2637391474170794</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2412613642687824</v>
+        <v>0.2437793738290718</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2855033835922414</v>
+        <v>0.2864233514627758</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>896</v>
@@ -1144,19 +1144,19 @@
         <v>960933</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>907139</v>
+        <v>906764</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1015175</v>
+        <v>1017770</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2597523451318938</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.245211076743897</v>
+        <v>0.2451097828085025</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.274414728310872</v>
+        <v>0.2751162876747948</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>84139</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66636</v>
+        <v>66475</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106295</v>
+        <v>106533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04306033878284</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03410273596327999</v>
+        <v>0.03402014515464887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05439907278124637</v>
+        <v>0.05452086825636308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1194,19 +1194,19 @@
         <v>67233</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51602</v>
+        <v>52078</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85459</v>
+        <v>88399</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03851892577401719</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02956392776557201</v>
+        <v>0.0298365142761082</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0489614855004768</v>
+        <v>0.05064563277635836</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -1215,19 +1215,19 @@
         <v>151371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>128248</v>
+        <v>125618</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179595</v>
+        <v>179964</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04091763283191206</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0346670330082901</v>
+        <v>0.03395603767872808</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04854694169705851</v>
+        <v>0.04864652324925644</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>340774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>321259</v>
+        <v>317526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>359700</v>
+        <v>361361</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7112045378498951</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6704774788271285</v>
+        <v>0.6626861826836772</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7507042656865853</v>
+        <v>0.7541710652951369</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>297</v>
@@ -1340,19 +1340,19 @@
         <v>331265</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>309329</v>
+        <v>311260</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>351850</v>
+        <v>349907</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7222908885670164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6744620975335376</v>
+        <v>0.6786729649669944</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7671740093286302</v>
+        <v>0.7629377748798315</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>604</v>
@@ -1361,19 +1361,19 @@
         <v>672039</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>643427</v>
+        <v>642509</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>701259</v>
+        <v>701001</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7166264289650928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.686116069744488</v>
+        <v>0.6851375498277212</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7477859863532537</v>
+        <v>0.7475107405239938</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>120649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102163</v>
+        <v>99857</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140238</v>
+        <v>140347</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2517980716751931</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2132173466811704</v>
+        <v>0.2084038120507137</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2926807777756367</v>
+        <v>0.2929092978375381</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -1411,19 +1411,19 @@
         <v>116569</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96104</v>
+        <v>97333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136682</v>
+        <v>136542</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2541666383880291</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2095463358792956</v>
+        <v>0.212226039459791</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2980217199076912</v>
+        <v>0.2977171023501708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>218</v>
@@ -1432,19 +1432,19 @@
         <v>237218</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>209086</v>
+        <v>208996</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>265227</v>
+        <v>263879</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2529564430043849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2229582647025031</v>
+        <v>0.2228621317510858</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2828236453545269</v>
+        <v>0.2813865158597415</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>17727</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11008</v>
+        <v>10766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28197</v>
+        <v>29073</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03699739047491176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0229732604315129</v>
+        <v>0.0224687489734652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05884697140056985</v>
+        <v>0.06067653080935354</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1482,19 +1482,19 @@
         <v>10797</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5760</v>
+        <v>5632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19126</v>
+        <v>19068</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02354247304495457</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01256017131600472</v>
+        <v>0.01228056566582945</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04170162349393338</v>
+        <v>0.04157686979315472</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -1503,19 +1503,19 @@
         <v>28525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19269</v>
+        <v>19015</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41222</v>
+        <v>41802</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0304171280305223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02054790311498029</v>
+        <v>0.02027661217937296</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04395748460611846</v>
+        <v>0.04457558711314214</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>2421739</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2360240</v>
+        <v>2368172</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2475815</v>
+        <v>2477696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7122890520189616</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6942008207667111</v>
+        <v>0.6965337563138215</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7281942265035566</v>
+        <v>0.7287475099303811</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2325</v>
@@ -1628,19 +1628,19 @@
         <v>2508598</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2448874</v>
+        <v>2453192</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2562267</v>
+        <v>2559000</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7099110111576655</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6930096306086764</v>
+        <v>0.6942318242725185</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7250990470176546</v>
+        <v>0.7241745147734819</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4589</v>
@@ -1649,19 +1649,19 @@
         <v>4930336</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4849001</v>
+        <v>4843345</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5008781</v>
+        <v>5006866</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7110770966955046</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6993465685764683</v>
+        <v>0.6985308345449709</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7223907539157073</v>
+        <v>0.7221145256959071</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>844053</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>789792</v>
+        <v>795458</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>900156</v>
+        <v>893601</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2482553831867495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2322961333092694</v>
+        <v>0.2339624302398504</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2647567313399961</v>
+        <v>0.2628287000918695</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>840</v>
@@ -1699,19 +1699,19 @@
         <v>906708</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>857885</v>
+        <v>860081</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>963698</v>
+        <v>964557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2565902788479872</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2427739773751956</v>
+        <v>0.2433954597400241</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2727180594591899</v>
+        <v>0.2729610171764817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1636</v>
@@ -1720,19 +1720,19 @@
         <v>1750761</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1680100</v>
+        <v>1677810</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1833356</v>
+        <v>1829568</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2525032164899966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2423122380365947</v>
+        <v>0.2419818634865531</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2644155043629631</v>
+        <v>0.263869251792265</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>134146</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>111704</v>
+        <v>113078</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>157570</v>
+        <v>158565</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03945556479428887</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03285477705751393</v>
+        <v>0.033258741693471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04634489187548975</v>
+        <v>0.04663761732092898</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>111</v>
@@ -1770,19 +1770,19 @@
         <v>118374</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98598</v>
+        <v>97118</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>144084</v>
+        <v>143226</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0334987099943473</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02790227087923528</v>
+        <v>0.02748340025911406</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04077440126388464</v>
+        <v>0.0405316140613827</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>237</v>
@@ -1791,19 +1791,19 @@
         <v>252520</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>222823</v>
+        <v>221700</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>286144</v>
+        <v>290661</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03641968681449884</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03213655390262387</v>
+        <v>0.03197464908891713</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04126902816268282</v>
+        <v>0.04192057854498589</v>
       </c>
     </row>
     <row r="19">
@@ -2134,19 +2134,19 @@
         <v>559266</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>536619</v>
+        <v>534187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>582979</v>
+        <v>582024</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7469605391521971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7167127120010737</v>
+        <v>0.7134649533182056</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7786323570447859</v>
+        <v>0.7773571717155195</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>652</v>
@@ -2155,19 +2155,19 @@
         <v>724450</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>691609</v>
+        <v>694636</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>751522</v>
+        <v>752533</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7363005942590429</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7029225759137819</v>
+        <v>0.7059992972545902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7638159694462501</v>
+        <v>0.7648427829849317</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1216</v>
@@ -2176,19 +2176,19 @@
         <v>1283716</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1244989</v>
+        <v>1248091</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1320259</v>
+        <v>1321741</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7409070875768043</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7185554193229803</v>
+        <v>0.720346008562657</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7619982649197402</v>
+        <v>0.7628536983200309</v>
       </c>
     </row>
     <row r="5">
@@ -2205,19 +2205,19 @@
         <v>158295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>137899</v>
+        <v>136063</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>179736</v>
+        <v>181281</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2114199502934973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1841787615091221</v>
+        <v>0.1817272929900503</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2400568722336767</v>
+        <v>0.2421204209324021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>196</v>
@@ -2226,19 +2226,19 @@
         <v>220639</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195503</v>
+        <v>194239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>249687</v>
+        <v>249157</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2242483884297686</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1987013949765943</v>
+        <v>0.1974165467706337</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2537710516090556</v>
+        <v>0.2532329968215471</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>358</v>
@@ -2247,19 +2247,19 @@
         <v>378934</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>345757</v>
+        <v>343273</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>418530</v>
+        <v>415478</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2187048218218398</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1995565287052886</v>
+        <v>0.1981226804127031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2415578255388188</v>
+        <v>0.2397963151006182</v>
       </c>
     </row>
     <row r="6">
@@ -2276,19 +2276,19 @@
         <v>31161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20642</v>
+        <v>21356</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44040</v>
+        <v>44250</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04161951055430568</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02756990528415983</v>
+        <v>0.02852336942462137</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05882080978968558</v>
+        <v>0.05910022366865852</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -2297,19 +2297,19 @@
         <v>38816</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27712</v>
+        <v>27232</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54002</v>
+        <v>52061</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03945101731118848</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02816569847716723</v>
+        <v>0.02767725099767184</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05488488107551908</v>
+        <v>0.05291287781632627</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -2318,19 +2318,19 @@
         <v>69977</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53861</v>
+        <v>53980</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>88396</v>
+        <v>87524</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04038809060135579</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03108612983856376</v>
+        <v>0.03115522480653968</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05101821366347086</v>
+        <v>0.05051512233422212</v>
       </c>
     </row>
     <row r="7">
@@ -2422,19 +2422,19 @@
         <v>1582054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1540145</v>
+        <v>1543160</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1619831</v>
+        <v>1620472</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.765638087920806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7453563395685254</v>
+        <v>0.7468150726595502</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7839205219814733</v>
+        <v>0.7842303875578341</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1453</v>
@@ -2443,19 +2443,19 @@
         <v>1511250</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1469684</v>
+        <v>1468557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1544832</v>
+        <v>1546023</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.765101537115141</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7440578844520481</v>
+        <v>0.7434873217464434</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7821029094708671</v>
+        <v>0.7827060357322956</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2939</v>
@@ -2464,19 +2464,19 @@
         <v>3093303</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3033079</v>
+        <v>3033397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3141963</v>
+        <v>3142196</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7653758592040187</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7504744969470477</v>
+        <v>0.7505532497831887</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7774156575474654</v>
+        <v>0.7774732698984188</v>
       </c>
     </row>
     <row r="9">
@@ -2493,19 +2493,19 @@
         <v>408715</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>372295</v>
+        <v>373353</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>446468</v>
+        <v>445000</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1977983828987636</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1801728040552205</v>
+        <v>0.1806850699792829</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2160688083228466</v>
+        <v>0.2153588107489815</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>380</v>
@@ -2514,19 +2514,19 @@
         <v>398767</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>365958</v>
+        <v>364711</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>437537</v>
+        <v>434413</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2018840552510436</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1852737769002584</v>
+        <v>0.1846426882271395</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2215119029308576</v>
+        <v>0.2199305878992467</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>764</v>
@@ -2535,19 +2535,19 @@
         <v>807482</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>762290</v>
+        <v>761133</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>865807</v>
+        <v>859381</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1997951753867064</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1886134444918258</v>
+        <v>0.1883270746724428</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2142264782758368</v>
+        <v>0.2126365433729489</v>
       </c>
     </row>
     <row r="10">
@@ -2564,19 +2564,19 @@
         <v>75552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60878</v>
+        <v>59913</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94775</v>
+        <v>93207</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03656352918043038</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02946185724111821</v>
+        <v>0.02899505067873403</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04586660260188531</v>
+        <v>0.0451078925312537</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -2585,19 +2585,19 @@
         <v>65211</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50912</v>
+        <v>49986</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82240</v>
+        <v>82596</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03301440763381546</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02577521267297616</v>
+        <v>0.02530651729528466</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04163587787879925</v>
+        <v>0.04181597844942399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>136</v>
@@ -2606,19 +2606,19 @@
         <v>140763</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118641</v>
+        <v>118819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167050</v>
+        <v>163846</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0348289654092749</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02935540255142437</v>
+        <v>0.02939946330550604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0413332685893789</v>
+        <v>0.04054050086564354</v>
       </c>
     </row>
     <row r="11">
@@ -2710,19 +2710,19 @@
         <v>420084</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>399242</v>
+        <v>397002</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>439428</v>
+        <v>439353</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7710161096171628</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7327635083754921</v>
+        <v>0.7286526477687285</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.806521577668503</v>
+        <v>0.8063832294536265</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>412</v>
@@ -2731,19 +2731,19 @@
         <v>428363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>409161</v>
+        <v>408694</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>447819</v>
+        <v>448469</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7892507578218995</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7538706429483975</v>
+        <v>0.7530093493372771</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8250978976196863</v>
+        <v>0.826293904154503</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>796</v>
@@ -2752,19 +2752,19 @@
         <v>848447</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>821109</v>
+        <v>818057</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>873465</v>
+        <v>877179</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7801158571660457</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7549798019740283</v>
+        <v>0.7521732003478366</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8031192231198788</v>
+        <v>0.8065338176995301</v>
       </c>
     </row>
     <row r="13">
@@ -2781,19 +2781,19 @@
         <v>113902</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95617</v>
+        <v>95971</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134562</v>
+        <v>137727</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2090545109612792</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1754935367677436</v>
+        <v>0.1761442441608559</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2469742872171551</v>
+        <v>0.2527828023819113</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -2802,19 +2802,19 @@
         <v>99041</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81068</v>
+        <v>81055</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117724</v>
+        <v>118232</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1824809532473808</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.149365214196721</v>
+        <v>0.1493416384573188</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2169043486458732</v>
+        <v>0.2178396604620244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>201</v>
@@ -2823,19 +2823,19 @@
         <v>212943</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>189493</v>
+        <v>184300</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>240329</v>
+        <v>240913</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1957933466132152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1742316481386509</v>
+        <v>0.1694573755119561</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2209741463231137</v>
+        <v>0.2215106027384807</v>
       </c>
     </row>
     <row r="14">
@@ -2852,19 +2852,19 @@
         <v>10858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5484</v>
+        <v>4891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19210</v>
+        <v>20035</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01992937942155797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01006452434987111</v>
+        <v>0.008976271919152765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03525784182259576</v>
+        <v>0.03677194507072398</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -2873,19 +2873,19 @@
         <v>15343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8699</v>
+        <v>8840</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26729</v>
+        <v>28298</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02826828893071967</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01602818953158667</v>
+        <v>0.01628751093191961</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04924782705847622</v>
+        <v>0.05213762153959327</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -2894,19 +2894,19 @@
         <v>26201</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16586</v>
+        <v>16139</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40868</v>
+        <v>38326</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02409079622073916</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01524985551064589</v>
+        <v>0.014839573910961</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03757629449447767</v>
+        <v>0.0352391221960963</v>
       </c>
     </row>
     <row r="15">
@@ -2998,19 +2998,19 @@
         <v>2561403</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2508683</v>
+        <v>2510102</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2610986</v>
+        <v>2610462</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7623480648381479</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7466572981906834</v>
+        <v>0.7470793665103462</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7771056223599421</v>
+        <v>0.7769496368747753</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2517</v>
@@ -3019,19 +3019,19 @@
         <v>2664063</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2605344</v>
+        <v>2608867</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2719211</v>
+        <v>2712067</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7607523131713771</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7439844354564452</v>
+        <v>0.7449903179217064</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7765004370635801</v>
+        <v>0.7744604099733753</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4951</v>
@@ -3040,19 +3040,19 @@
         <v>5225466</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5151858</v>
+        <v>5148120</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5298184</v>
+        <v>5296617</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7615336782150161</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7508064294540797</v>
+        <v>0.7502616356020719</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7721312379503046</v>
+        <v>0.7719028899468238</v>
       </c>
     </row>
     <row r="17">
@@ -3069,19 +3069,19 @@
         <v>680912</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>634911</v>
+        <v>635685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>733017</v>
+        <v>729945</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2026591418063133</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1889680274806556</v>
+        <v>0.1891983226161421</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2181673258548606</v>
+        <v>0.2172529020417224</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>671</v>
@@ -3090,19 +3090,19 @@
         <v>718447</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>669504</v>
+        <v>671344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>769624</v>
+        <v>768654</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2051604075349912</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1911842091663661</v>
+        <v>0.1917095942522327</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.219774463751489</v>
+        <v>0.2194974847918614</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1323</v>
@@ -3111,19 +3111,19 @@
         <v>1399359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1328217</v>
+        <v>1335039</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1466458</v>
+        <v>1473251</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2039356545574831</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1935677406064642</v>
+        <v>0.194562084339943</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2137144268592602</v>
+        <v>0.2147043595850389</v>
       </c>
     </row>
     <row r="18">
@@ -3140,19 +3140,19 @@
         <v>117572</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>97147</v>
+        <v>96333</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>140096</v>
+        <v>139447</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03499279335553879</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02891390578143916</v>
+        <v>0.02867151693905025</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04169653408354525</v>
+        <v>0.04150355273352943</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>110</v>
@@ -3161,19 +3161,19 @@
         <v>119370</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98784</v>
+        <v>100716</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>144644</v>
+        <v>142736</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0340872792936317</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02820876341940476</v>
+        <v>0.02876058885625608</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04130478745091977</v>
+        <v>0.04075987155398668</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>222</v>
@@ -3182,19 +3182,19 @@
         <v>236941</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>204555</v>
+        <v>205112</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>270946</v>
+        <v>268273</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0345306672275008</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02981083102829002</v>
+        <v>0.02989200946567484</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03948635566248893</v>
+        <v>0.03909682440819485</v>
       </c>
     </row>
     <row r="19">
@@ -3525,19 +3525,19 @@
         <v>460438</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>440574</v>
+        <v>442256</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>477526</v>
+        <v>479118</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8007920940357337</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7662453077983225</v>
+        <v>0.769170163430935</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8305113529975581</v>
+        <v>0.8332803748229924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1158</v>
@@ -3546,19 +3546,19 @@
         <v>650639</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>630176</v>
+        <v>630736</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>668262</v>
+        <v>669822</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7938493619113435</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.76888179416054</v>
+        <v>0.7695658897803426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8153514012858415</v>
+        <v>0.817255316142138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1715</v>
@@ -3567,19 +3567,19 @@
         <v>1111077</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1085829</v>
+        <v>1082513</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1134829</v>
+        <v>1135342</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7967118188366863</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7786077680885745</v>
+        <v>0.776229608157434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8137438738736894</v>
+        <v>0.8141113145876764</v>
       </c>
     </row>
     <row r="5">
@@ -3596,19 +3596,19 @@
         <v>72980</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59161</v>
+        <v>58437</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90679</v>
+        <v>89977</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1269257600461668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.102892545038595</v>
+        <v>0.1016330862982346</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1577084052536207</v>
+        <v>0.1564885055005252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>190</v>
@@ -3617,19 +3617,19 @@
         <v>119108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104285</v>
+        <v>102070</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>136863</v>
+        <v>136779</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1453243430071263</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1272392670707546</v>
+        <v>0.1245362714038199</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1669874900367328</v>
+        <v>0.1668855885397582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>274</v>
@@ -3638,19 +3638,19 @@
         <v>192087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>172425</v>
+        <v>170349</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216512</v>
+        <v>215928</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1377386908071692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1236395352703948</v>
+        <v>0.1221507200980534</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.15525266163203</v>
+        <v>0.1548337551965974</v>
       </c>
     </row>
     <row r="6">
@@ -3667,19 +3667,19 @@
         <v>41561</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30694</v>
+        <v>30654</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54321</v>
+        <v>54710</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07228214591809952</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.053382226276535</v>
+        <v>0.05331394262200288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09447412926394035</v>
+        <v>0.09515201617794794</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>75</v>
@@ -3688,19 +3688,19 @@
         <v>49853</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39333</v>
+        <v>39918</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61625</v>
+        <v>63071</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06082629508153015</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04799041273416829</v>
+        <v>0.0487038052187406</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0751887086016889</v>
+        <v>0.07695296552806877</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>121</v>
@@ -3709,19 +3709,19 @@
         <v>91414</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74881</v>
+        <v>76410</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>108259</v>
+        <v>110264</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.06554949035614439</v>
+        <v>0.06554949035614441</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05369454178065158</v>
+        <v>0.05479068972168338</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07762818926159343</v>
+        <v>0.07906618708452234</v>
       </c>
     </row>
     <row r="7">
@@ -3813,19 +3813,19 @@
         <v>1866081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1827685</v>
+        <v>1821064</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1908141</v>
+        <v>1904032</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8387274248877477</v>
+        <v>0.8387274248877475</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8214697038106132</v>
+        <v>0.818493790746347</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8576313911812568</v>
+        <v>0.8557848939475069</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2434</v>
@@ -3834,19 +3834,19 @@
         <v>1768975</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1729082</v>
+        <v>1732060</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1803763</v>
+        <v>1802673</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8163935287216145</v>
+        <v>0.8163935287216142</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7979828750804188</v>
+        <v>0.7993570409331211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8324485396149754</v>
+        <v>0.8319454081448984</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4116</v>
@@ -3855,19 +3855,19 @@
         <v>3635056</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3578268</v>
+        <v>3580293</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3686417</v>
+        <v>3689113</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8277081585491672</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8147773974478745</v>
+        <v>0.8152385818508779</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.839403259012149</v>
+        <v>0.8400171281359116</v>
       </c>
     </row>
     <row r="9">
@@ -3884,19 +3884,19 @@
         <v>262020</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>227468</v>
+        <v>231587</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>296146</v>
+        <v>298791</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1177672026741328</v>
+        <v>0.1177672026741327</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1022373781298488</v>
+        <v>0.104088752740838</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1331054992266279</v>
+        <v>0.1342942862307648</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>369</v>
@@ -3905,19 +3905,19 @@
         <v>295268</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>266715</v>
+        <v>267825</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>329456</v>
+        <v>328700</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1362681636244574</v>
+        <v>0.1362681636244573</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1230907207191362</v>
+        <v>0.1236031964050866</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1520459687461032</v>
+        <v>0.1516971725924972</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>598</v>
@@ -3926,19 +3926,19 @@
         <v>557288</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>513971</v>
+        <v>512828</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>607043</v>
+        <v>606462</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1268953464926055</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1170319797593984</v>
+        <v>0.1167716917371084</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1382247588671121</v>
+        <v>0.138092286851698</v>
       </c>
     </row>
     <row r="10">
@@ -3955,19 +3955,19 @@
         <v>96795</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75173</v>
+        <v>76459</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122355</v>
+        <v>121256</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0435053724381196</v>
+        <v>0.04350537243811959</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03378733127968003</v>
+        <v>0.03436541160635171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05499375048773315</v>
+        <v>0.05449957529038573</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -3976,19 +3976,19 @@
         <v>102573</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84526</v>
+        <v>81902</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125241</v>
+        <v>123734</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04733830765392835</v>
+        <v>0.04733830765392832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03900937865046097</v>
+        <v>0.03779831961711409</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05779953573317555</v>
+        <v>0.05710407275413045</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>187</v>
@@ -3997,19 +3997,19 @@
         <v>199368</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>171226</v>
+        <v>170548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>235505</v>
+        <v>232528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04539649495822724</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03898835492186462</v>
+        <v>0.03883407771296096</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05362495983828031</v>
+        <v>0.05294693009962926</v>
       </c>
     </row>
     <row r="11">
@@ -4101,19 +4101,19 @@
         <v>592012</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>569836</v>
+        <v>567944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>613922</v>
+        <v>612704</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8334722872142032</v>
+        <v>0.8334722872142029</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8022509017918018</v>
+        <v>0.7995881288860019</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8643178726029282</v>
+        <v>0.8626043287755073</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>843</v>
@@ -4122,19 +4122,19 @@
         <v>610202</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>591087</v>
+        <v>592462</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>628501</v>
+        <v>627826</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8359571757168935</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8097701315950325</v>
+        <v>0.8116542457135233</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8610258400063402</v>
+        <v>0.8601014731011277</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1420</v>
@@ -4143,19 +4143,19 @@
         <v>1202214</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1169820</v>
+        <v>1172172</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1231803</v>
+        <v>1232318</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8347316817091006</v>
+        <v>0.8347316817091008</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.81223936768455</v>
+        <v>0.8138727714435078</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8552764956896051</v>
+        <v>0.8556339026798123</v>
       </c>
     </row>
     <row r="13">
@@ -4172,19 +4172,19 @@
         <v>98207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79384</v>
+        <v>80675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122424</v>
+        <v>121755</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1382620168338623</v>
+        <v>0.1382620168338622</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1117623492609644</v>
+        <v>0.1135797883060135</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1723563195603519</v>
+        <v>0.1714146874381445</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>129</v>
@@ -4193,19 +4193,19 @@
         <v>100972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83890</v>
+        <v>84616</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118878</v>
+        <v>120402</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1383280279968268</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1149270162605719</v>
+        <v>0.1159218332624816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1628587403202019</v>
+        <v>0.1649463960234094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>217</v>
@@ -4214,19 +4214,19 @@
         <v>199179</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>171840</v>
+        <v>168773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>228099</v>
+        <v>226756</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1382954726992459</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1193135463639523</v>
+        <v>0.1171837142779087</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1583758894110227</v>
+        <v>0.1574431794843437</v>
       </c>
     </row>
     <row r="14">
@@ -4243,19 +4243,19 @@
         <v>20077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11001</v>
+        <v>11109</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34039</v>
+        <v>35311</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02826569595193481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01548746894179009</v>
+        <v>0.01563969502873369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0479222093786521</v>
+        <v>0.04971340743788565</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -4264,19 +4264,19 @@
         <v>18770</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12356</v>
+        <v>12241</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27007</v>
+        <v>28236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02571479628627949</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01692787233446087</v>
+        <v>0.01676966658761611</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03699908780688182</v>
+        <v>0.03868276525421677</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>39</v>
@@ -4285,19 +4285,19 @@
         <v>38847</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27297</v>
+        <v>26611</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56399</v>
+        <v>54541</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02697284559165335</v>
+        <v>0.02697284559165336</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01895333214054734</v>
+        <v>0.01847707741450108</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03915936209843866</v>
+        <v>0.03786906804711781</v>
       </c>
     </row>
     <row r="15">
@@ -4389,19 +4389,19 @@
         <v>2918531</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2865798</v>
+        <v>2868653</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2966195</v>
+        <v>2965264</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8314500868661594</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8164271584545533</v>
+        <v>0.8172404971846536</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8450289364432085</v>
+        <v>0.8447635794921969</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4435</v>
@@ -4410,19 +4410,19 @@
         <v>3029815</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2986928</v>
+        <v>2982984</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3075736</v>
+        <v>3070653</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8152642453959893</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8037240479061286</v>
+        <v>0.8026628040440271</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8276206017165076</v>
+        <v>0.8262529139268694</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7251</v>
@@ -4431,19 +4431,19 @@
         <v>5948347</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5874050</v>
+        <v>5875424</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6012372</v>
+        <v>6007683</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8231262554511194</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8128451319239161</v>
+        <v>0.8130352672791197</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8319860184132605</v>
+        <v>0.8313371828062268</v>
       </c>
     </row>
     <row r="17">
@@ -4460,19 +4460,19 @@
         <v>433206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>394802</v>
+        <v>391429</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476378</v>
+        <v>478925</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1234146073408231</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1124737974205813</v>
+        <v>0.1115129356694401</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1357137755649951</v>
+        <v>0.1364392084912531</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>688</v>
@@ -4481,19 +4481,19 @@
         <v>515348</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>476850</v>
+        <v>475248</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>555688</v>
+        <v>558799</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1386699842103104</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1283109261244474</v>
+        <v>0.1278799150722106</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1495249240763818</v>
+        <v>0.1503619803603829</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1089</v>
@@ -4502,19 +4502,19 @@
         <v>948554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>887674</v>
+        <v>894376</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1012570</v>
+        <v>1010347</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1312599322483071</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1228354291468071</v>
+        <v>0.1237628372739699</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1401184590916873</v>
+        <v>0.1398108424671732</v>
       </c>
     </row>
     <row r="18">
@@ -4531,19 +4531,19 @@
         <v>158433</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>131359</v>
+        <v>133535</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>189828</v>
+        <v>189677</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04513530579301747</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0374224872981507</v>
+        <v>0.03804225260004486</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05407930964161663</v>
+        <v>0.05403655279079691</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>211</v>
@@ -4552,19 +4552,19 @@
         <v>171197</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>147316</v>
+        <v>148405</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>195394</v>
+        <v>198520</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04606577039370026</v>
+        <v>0.04606577039370025</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03963972850280397</v>
+        <v>0.0399328720686721</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05257681750296856</v>
+        <v>0.05341793572862669</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>347</v>
@@ -4573,19 +4573,19 @@
         <v>329630</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>295918</v>
+        <v>291201</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>373024</v>
+        <v>368005</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04561381230057346</v>
+        <v>0.04561381230057347</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04094879444873592</v>
+        <v>0.04029604271070955</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05161865104267871</v>
+        <v>0.05092411692207039</v>
       </c>
     </row>
     <row r="19">
